--- a/Excel/BuffConfig@cs.xlsx
+++ b/Excel/BuffConfig@cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ET_Framwork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C875FD2-242D-4586-8F14-9CAE8B209CA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220B80F9-C488-47F6-AF78-6095E1CA3CCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -86,7 +86,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>类型（1属性变化2行为禁制4持续掉血）</t>
+    <t>类型（1属性变化2行为禁制3持续掉血）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +482,7 @@
   <dimension ref="C3:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -585,7 +589,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>17</v>
@@ -611,6 +615,12 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>1001</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>

--- a/Excel/BuffConfig@cs.xlsx
+++ b/Excel/BuffConfig@cs.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ET_Framwork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220B80F9-C488-47F6-AF78-6095E1CA3CCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ECBB4F-F844-41E6-A2A9-A95EECF7E567}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -37,12 +37,6 @@
     <t>显示在状态栏</t>
   </si>
   <si>
-    <t>游戏特效表现</t>
-  </si>
-  <si>
-    <t>表现位置(1:Head)</t>
-  </si>
-  <si>
     <t>叠加判别组(同组只取最高优先级)</t>
   </si>
   <si>
@@ -61,12 +55,6 @@
     <t>StatusSlot</t>
   </si>
   <si>
-    <t>BuffObj</t>
-  </si>
-  <si>
-    <t>ObjRoot</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -77,9 +65,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>Buff/Buff_1001/Prefabs/Buff_1001.prefab</t>
   </si>
   <si>
     <t>Type</t>
@@ -91,6 +76,18 @@
   </si>
   <si>
     <t>int[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏特效表现（0表示无）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:L13"/>
+  <dimension ref="C3:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -495,14 +492,13 @@
     <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="33.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="15.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:11" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -519,128 +515,116 @@
         <v>4</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="4" t="s">
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="J5" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>1000</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
+      <c r="H6" s="1">
+        <v>1000</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
         <v>2</v>
       </c>
+      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>1001</v>
       </c>
-      <c r="J7" s="1">
+      <c r="I7" s="1">
         <v>3</v>
       </c>
+      <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="L13" s="6"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
